--- a/Arbeitsstunden_Strahlhofer.xlsx
+++ b/Arbeitsstunden_Strahlhofer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\Documents\Private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\Documents\Private\da_schrift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9602952-B873-48CA-AC92-5D74A6C7D30E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C62BF5-F481-4D06-954B-ED4D85A46067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14670" yWindow="1350" windowWidth="13890" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7590" yWindow="0" windowWidth="13890" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Summe der Arbeitstunden</t>
   </si>
   <si>
-    <t>Erstes Frontend erstellen</t>
-  </si>
-  <si>
     <t>Plannung Risikomanagement zu Anmeldesystemen</t>
   </si>
   <si>
@@ -100,6 +97,12 @@
   </si>
   <si>
     <t>Unterscheidung zwischen User und Admin einfügen</t>
+  </si>
+  <si>
+    <t>Erstes Frontend für die App erstellt</t>
+  </si>
+  <si>
+    <t>Administratives (Vivify, Dokumentation, Repository)</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -175,10 +178,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -465,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +493,7 @@
         <v>44044</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4">
         <v>12</v>
@@ -505,7 +504,7 @@
         <v>44063</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -516,7 +515,7 @@
         <v>44064</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -526,11 +525,11 @@
       <c r="A5" s="8">
         <v>44064</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13">
-        <v>21</v>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,10 +537,10 @@
         <v>44077</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,20 +548,20 @@
         <v>44080</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44082</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11">
         <v>5</v>
       </c>
     </row>
@@ -570,10 +569,10 @@
       <c r="A9" s="8">
         <v>44082</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11">
         <v>10</v>
       </c>
     </row>
@@ -582,7 +581,7 @@
         <v>44086</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>50</v>
@@ -593,7 +592,7 @@
         <v>44114</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4">
         <v>4</v>
@@ -603,10 +602,10 @@
       <c r="A12" s="8">
         <v>44119</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11">
         <v>3</v>
       </c>
     </row>
@@ -615,7 +614,7 @@
         <v>44133</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>5</v>
@@ -625,10 +624,10 @@
       <c r="A14" s="8">
         <v>44155</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="11">
         <v>10</v>
       </c>
     </row>
@@ -637,7 +636,7 @@
         <v>44172</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4">
         <v>14</v>
@@ -648,20 +647,20 @@
         <v>44193</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44259</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="11">
         <v>8</v>
       </c>
     </row>
@@ -670,7 +669,7 @@
         <v>44301</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4">
         <v>5</v>
@@ -681,25 +680,31 @@
         <v>44303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
-        <f>SUM(C2:C19)</f>
-        <v>186</v>
+      <c r="C22" s="7">
+        <f>SUM(C2:C20)</f>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsstunden_Strahlhofer.xlsx
+++ b/Arbeitsstunden_Strahlhofer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benni\Documents\Private\da_schrift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C62BF5-F481-4D06-954B-ED4D85A46067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378FB32B-A184-495F-858A-D475D278CEC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7590" yWindow="0" windowWidth="13890" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Administratives (Vivify, Dokumentation, Repository)</t>
+  </si>
+  <si>
+    <t>Schreiben der Diplomschrift</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,11 +158,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -175,13 +191,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +522,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>44063</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -511,7 +533,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>44064</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -522,18 +544,18 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>44064</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>44077</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -555,24 +577,24 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>44082</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>44082</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>10</v>
       </c>
     </row>
@@ -599,13 +621,13 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>44119</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>3</v>
       </c>
     </row>
@@ -621,13 +643,13 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>44155</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>10</v>
       </c>
     </row>
@@ -657,54 +679,64 @@
       <c r="A17" s="2">
         <v>44259</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44301</v>
+        <v>44280</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <v>44301</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>44303</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="7">
-        <f>SUM(C2:C20)</f>
-        <v>189</v>
+      <c r="C23" s="13">
+        <f>SUM(C2:C21)</f>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
